--- a/StructureDefinition-NatlDir-Validation.xlsx
+++ b/StructureDefinition-NatlDir-Validation.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$51</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="280">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>National Directory Validation</t>
+    <t>NatlDir Validation</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T11:12:19-04:00</t>
+    <t>2017-12-10T12:42:47.483-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile sets minimum expectations for searching for and fetching information associated with validation. It identifies which core elements, extensions, vocabularies and value sets SHALL be present in the VerificationResult resource when using this profile.</t>
+    <t>Describes validation requirements, source(s), status and dates for one or more elements</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -246,10 +249,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>Describes validation requirements, source(s), status and dates for one or more elements</t>
-  </si>
-  <si>
-    <t>Describes validation requirements, source(s), status and dates for one or more elements.</t>
+    <t>Validation</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -521,13 +521,10 @@
     <t>VerificationResult.validationType</t>
   </si>
   <si>
-    <t>nothing | primary | multiple</t>
-  </si>
-  <si>
-    <t>What the target is validated against (nothing; primary source; multiple sources).</t>
-  </si>
-  <si>
-    <t>What the target is validated against.</t>
+    <t>nothing|single|multiple</t>
+  </si>
+  <si>
+    <t>What the target is validated against (nothing|single source|multiple sources)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/verificationresult-validation-type</t>
@@ -536,19 +533,13 @@
     <t>VerificationResult.validationProcess</t>
   </si>
   <si>
-    <t>The primary process by which the target is validated (edit check; value set; primary source; multiple sources; standalone; in context)</t>
-  </si>
-  <si>
-    <t>The primary process by which the target is validated (edit check; value set; primary source; multiple sources; standalone; in context).</t>
+    <t>The process(es) by which the target is validated</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>The primary process by which the target is validated.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/verificationresult-validation-process</t>
+    <t>http://hl7.org/fhir/uv/vhdir/ValueSet/validationprocess</t>
   </si>
   <si>
     <t>VerificationResult.frequency</t>
@@ -658,7 +649,7 @@
     <t>VerificationResult.primarySource.who</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Practitioner|http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-PractitionerRole)
 </t>
   </si>
   <si>
@@ -674,13 +665,7 @@
     <t>VerificationResult.primarySource.type</t>
   </si>
   <si>
-    <t>Type of primary source (License Board; Primary Education; Continuing Education; Postal Service; Relationship owner; Registration Authority; legal source; issuing source; authoritative source)</t>
-  </si>
-  <si>
-    <t>Type of primary source (License Board; Primary Education; Continuing Education; Postal Service; Relationship owner; Registration Authority; legal source; issuing source; authoritative source).</t>
-  </si>
-  <si>
-    <t>Type of the validation primary source.</t>
+    <t>Type of primary source</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/verificationresult-primary-source-type</t>
@@ -695,9 +680,6 @@
     <t>Method for communicating with the primary source (manual; API; Push).</t>
   </si>
   <si>
-    <t>Method for communicating with the data source (manual; API; Push).</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/verificationresult-communication-method</t>
   </si>
   <si>
@@ -776,7 +758,7 @@
     <t>VerificationResult.attestation.who</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Practitioner|http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-PractitionerRole)
 </t>
   </si>
   <si>
@@ -874,7 +856,7 @@
     <t>VerificationResult.validator.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -1028,6 +1010,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1223,7 +1220,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="170.92578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="115.0703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1236,7 +1233,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.08203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="58.3671875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -1365,7 +1362,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1396,7 +1393,7 @@
         <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1459,18 +1456,18 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AJ2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK2" t="s" s="2">
+    </row>
+    <row r="3" hidden="true">
+      <c r="A3" t="s" s="2">
         <v>80</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1481,28 +1478,28 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1552,30 +1549,30 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" hidden="true">
+      <c r="A4" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1586,25 +1583,25 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1655,30 +1652,30 @@
         <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" hidden="true">
+      <c r="A5" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1689,28 +1686,28 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1760,30 +1757,30 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" hidden="true">
+      <c r="A6" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1794,7 +1791,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>74</v>
@@ -1806,16 +1803,16 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1841,65 +1838,65 @@
         <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" hidden="true">
+      <c r="A7" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>74</v>
@@ -1911,16 +1908,16 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1970,34 +1967,34 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AF7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK7" t="s" s="2">
+    </row>
+    <row r="8" hidden="true">
+      <c r="A8" t="s" s="2">
         <v>117</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2016,16 +2013,16 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2075,7 +2072,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2093,16 +2090,16 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" hidden="true">
+      <c r="A9" t="s" s="2">
         <v>125</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2121,16 +2118,16 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2180,7 +2177,7 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -2192,22 +2189,22 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" hidden="true">
+      <c r="A10" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2220,25 +2217,25 @@
         <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>74</v>
@@ -2287,7 +2284,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2299,18 +2296,18 @@
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2318,28 +2315,28 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2390,7 +2387,7 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -2402,7 +2399,7 @@
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>74</v>
@@ -2413,7 +2410,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2427,22 +2424,22 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="K12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2493,7 +2490,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2505,7 +2502,7 @@
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>74</v>
@@ -2516,7 +2513,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2524,28 +2521,28 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2572,14 +2569,14 @@
         <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>74</v>
       </c>
@@ -2596,19 +2593,19 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>74</v>
@@ -2619,7 +2616,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2627,28 +2624,28 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="H14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2675,14 +2672,14 @@
         <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>74</v>
       </c>
@@ -2699,19 +2696,19 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>74</v>
@@ -2722,7 +2719,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2730,28 +2727,28 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2802,19 +2799,19 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>74</v>
@@ -2825,7 +2822,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2833,28 +2830,28 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2881,13 +2878,11 @@
         <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>74</v>
@@ -2905,19 +2900,19 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>74</v>
@@ -2928,7 +2923,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2936,28 +2931,28 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2984,13 +2979,11 @@
         <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>74</v>
@@ -3008,7 +3001,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3020,7 +3013,7 @@
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>74</v>
@@ -3031,7 +3024,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3042,11 +3035,11 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3054,13 +3047,13 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3111,19 +3104,19 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>74</v>
@@ -3134,7 +3127,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3145,11 +3138,11 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3157,13 +3150,13 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3214,19 +3207,19 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>74</v>
@@ -3237,7 +3230,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3248,11 +3241,11 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3260,13 +3253,13 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3317,19 +3310,19 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>74</v>
@@ -3340,7 +3333,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3348,28 +3341,28 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3396,13 +3389,13 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
@@ -3420,19 +3413,19 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>74</v>
@@ -3443,7 +3436,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3457,7 +3450,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -3466,13 +3459,13 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3523,7 +3516,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3535,7 +3528,7 @@
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>74</v>
@@ -3544,9 +3537,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3557,7 +3550,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -3569,13 +3562,13 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3626,13 +3619,13 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
@@ -3644,16 +3637,16 @@
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3672,16 +3665,16 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3731,7 +3724,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3743,22 +3736,22 @@
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
         <v>197</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3771,25 +3764,25 @@
         <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -3838,7 +3831,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3850,18 +3843,18 @@
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3872,11 +3865,11 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
       </c>
@@ -3884,13 +3877,13 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3941,22 +3934,22 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -3964,7 +3957,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3972,28 +3965,28 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4020,13 +4013,11 @@
         <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>74</v>
@@ -4044,7 +4035,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4056,7 +4047,7 @@
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>74</v>
@@ -4067,7 +4058,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4081,22 +4072,22 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4123,13 +4114,11 @@
         <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>74</v>
@@ -4147,7 +4136,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4159,7 +4148,7 @@
         <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>74</v>
@@ -4170,7 +4159,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4181,11 +4170,11 @@
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4193,13 +4182,13 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4226,13 +4215,13 @@
         <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>74</v>
@@ -4250,19 +4239,19 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>74</v>
@@ -4273,7 +4262,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4284,11 +4273,11 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4296,13 +4285,13 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4353,19 +4342,19 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>74</v>
@@ -4376,7 +4365,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4387,25 +4376,25 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4432,13 +4421,13 @@
         <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>74</v>
@@ -4456,19 +4445,19 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>74</v>
@@ -4479,7 +4468,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4493,7 +4482,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -4502,13 +4491,13 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4535,13 +4524,13 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>74</v>
@@ -4559,7 +4548,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -4571,7 +4560,7 @@
         <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>74</v>
@@ -4582,7 +4571,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4590,14 +4579,14 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
       </c>
@@ -4605,13 +4594,13 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4662,19 +4651,19 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>74</v>
@@ -4683,9 +4672,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4696,7 +4685,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>74</v>
@@ -4708,13 +4697,13 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4765,13 +4754,13 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
@@ -4783,16 +4772,16 @@
         <v>74</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4811,16 +4800,16 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="L35" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4870,7 +4859,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -4882,22 +4871,22 @@
         <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -4910,25 +4899,25 @@
         <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>74</v>
@@ -4977,7 +4966,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -4989,18 +4978,18 @@
         <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5008,28 +4997,28 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5080,19 +5069,19 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>74</v>
@@ -5103,7 +5092,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5114,25 +5103,25 @@
         <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5183,19 +5172,19 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>74</v>
@@ -5206,7 +5195,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5214,28 +5203,28 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5262,13 +5251,11 @@
         <v>74</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>74</v>
@@ -5286,19 +5273,19 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>74</v>
@@ -5309,7 +5296,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5317,28 +5304,28 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5389,19 +5376,19 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>74</v>
@@ -5412,7 +5399,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5423,11 +5410,11 @@
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
       </c>
@@ -5435,13 +5422,13 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5492,19 +5479,19 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>74</v>
@@ -5515,7 +5502,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5526,11 +5513,11 @@
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
       </c>
@@ -5538,13 +5525,13 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5595,19 +5582,19 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>74</v>
@@ -5618,7 +5605,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5629,11 +5616,11 @@
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
       </c>
@@ -5641,13 +5628,13 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5698,19 +5685,19 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>74</v>
@@ -5721,7 +5708,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5732,11 +5719,11 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
       </c>
@@ -5744,13 +5731,13 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5801,19 +5788,19 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>74</v>
@@ -5824,7 +5811,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5838,7 +5825,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -5847,13 +5834,13 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5904,7 +5891,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -5916,7 +5903,7 @@
         <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>74</v>
@@ -5925,9 +5912,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5938,7 +5925,7 @@
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>74</v>
@@ -5950,13 +5937,13 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6007,13 +5994,13 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
@@ -6025,16 +6012,16 @@
         <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6053,16 +6040,16 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K47" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="L47" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6112,7 +6099,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6124,22 +6111,22 @@
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6152,25 +6139,25 @@
         <v>74</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -6219,7 +6206,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -6231,18 +6218,18 @@
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6250,14 +6237,14 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G49" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
       </c>
@@ -6265,13 +6252,13 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6322,19 +6309,19 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>74</v>
@@ -6345,7 +6332,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6356,11 +6343,11 @@
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
       </c>
@@ -6368,13 +6355,13 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6425,19 +6412,19 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>74</v>
@@ -6448,7 +6435,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6459,11 +6446,11 @@
         <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
       </c>
@@ -6471,13 +6458,13 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6528,19 +6515,19 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>74</v>
@@ -6550,6 +6537,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AK51">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI50">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-NatlDir-Validation.xlsx
+++ b/StructureDefinition-NatlDir-Validation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.0.1</t>
   </si>
   <si>
     <t>Name</t>
